--- a/Data/EC/NIT-9008520659.xlsx
+++ b/Data/EC/NIT-9008520659.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E566409-58E9-41AE-A771-904406D98A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6EFD8E-995C-487A-9F0E-446078ACB726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52B9651C-C5C5-4295-9382-EE4E8A0D4F90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4180F64B-9EA5-40FF-AD4C-6DA8F7820D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,72 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1065123466</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO MONTES MELENDEZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>1453204</t>
+  </si>
+  <si>
+    <t>WANDY YARIMAR VELASQUEZ BENCOMO</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>56787949</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO LUYANDO ARAUJO</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>45543335</t>
   </si>
   <si>
@@ -86,13 +152,394 @@
     <t>LUZ MERLY AYALA ACOSTA</t>
   </si>
   <si>
-    <t>1047451568</t>
-  </si>
-  <si>
-    <t>JEFFERSON DANILO BARRERA MALDONADO</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>3805977</t>
+  </si>
+  <si>
+    <t>JHON JAIRO BATISTA FLOREZ</t>
+  </si>
+  <si>
+    <t>1143343794</t>
+  </si>
+  <si>
+    <t>RUBY LUZ OTERO BERDUGO</t>
+  </si>
+  <si>
+    <t>1047374115</t>
+  </si>
+  <si>
+    <t>EMMA LAURINA SALINAS VARGAS</t>
+  </si>
+  <si>
+    <t>73196969</t>
+  </si>
+  <si>
+    <t>ERINSON ENRIQUE JIMENEZ DE AVILA</t>
+  </si>
+  <si>
+    <t>1130599185</t>
+  </si>
+  <si>
+    <t>ARTURO ANDRES HOOKER GOMEZ</t>
+  </si>
+  <si>
+    <t>1143345137</t>
+  </si>
+  <si>
+    <t>FRANK GUTIERREZ CARDOZY</t>
+  </si>
+  <si>
+    <t>1128050362</t>
+  </si>
+  <si>
+    <t>ELIAS JAIR JULIO DE LA ROSA</t>
+  </si>
+  <si>
+    <t>1002195968</t>
+  </si>
+  <si>
+    <t>ANDRES AUGUSTO MARTINEZ CARRILLO</t>
+  </si>
+  <si>
+    <t>1007987411</t>
+  </si>
+  <si>
+    <t>MICHELLE ESTHER HERRERA BURGOS</t>
+  </si>
+  <si>
+    <t>1001804286</t>
+  </si>
+  <si>
+    <t>DANIELA ALEJANDRA PUELLO BERRIO</t>
+  </si>
+  <si>
+    <t>1043645479</t>
+  </si>
+  <si>
+    <t>REYNALDO HERNANDEZ COLON</t>
+  </si>
+  <si>
+    <t>1047442817</t>
+  </si>
+  <si>
+    <t>JHON JADER GOMEZ ALVARADO</t>
+  </si>
+  <si>
+    <t>1047493507</t>
+  </si>
+  <si>
+    <t>CARLOS ENRIQUE JULIO NAVARRO</t>
+  </si>
+  <si>
+    <t>73140730</t>
+  </si>
+  <si>
+    <t>CARLOS ASTOLFO CASTILLO AGAMEZ</t>
+  </si>
+  <si>
+    <t>1143400995</t>
+  </si>
+  <si>
+    <t>CARMEN CECILIA LOPEZ TORRES</t>
+  </si>
+  <si>
+    <t>1043305349</t>
+  </si>
+  <si>
+    <t>WINNIFER MARIA NAVARRO BALLESTA</t>
+  </si>
+  <si>
+    <t>1010101539</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MARIO GAMEZ CARRILLO</t>
+  </si>
+  <si>
+    <t>1047505452</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL CIENFUEGOS GARCIA</t>
+  </si>
+  <si>
+    <t>64522943</t>
+  </si>
+  <si>
+    <t>LUZ MARINA ARIAS BAZA</t>
+  </si>
+  <si>
+    <t>1416334</t>
+  </si>
+  <si>
+    <t>JOSE ENRIQUE MONTOYA REBOLLEDO</t>
+  </si>
+  <si>
+    <t>1047425227</t>
+  </si>
+  <si>
+    <t>ALEJANDRINA CASTRO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>6303005</t>
+  </si>
+  <si>
+    <t>FRANKLIN JOSE GONZALEZ LA ROSA</t>
+  </si>
+  <si>
+    <t>6766115</t>
+  </si>
+  <si>
+    <t>ELBIS JOSE VALDIVIEZO GAMARDO</t>
+  </si>
+  <si>
+    <t>1047364878</t>
+  </si>
+  <si>
+    <t>JUAN JOSE CERON NAVARRO</t>
+  </si>
+  <si>
+    <t>1042583234</t>
+  </si>
+  <si>
+    <t>MILADIS MIRANDA DIAZ</t>
+  </si>
+  <si>
+    <t>1002189009</t>
+  </si>
+  <si>
+    <t>YURANIS PAOLA REALES SALAS</t>
+  </si>
+  <si>
+    <t>45692817</t>
+  </si>
+  <si>
+    <t>DIANETH ENELDA RODRIGUEZ CARABALLO</t>
+  </si>
+  <si>
+    <t>1238340484</t>
+  </si>
+  <si>
+    <t>WUILODIS LOPEZ QUIROZ</t>
+  </si>
+  <si>
+    <t>1142949455</t>
+  </si>
+  <si>
+    <t>ESTEBAN CAMILO DEAL CASTELLAR</t>
+  </si>
+  <si>
+    <t>1007786824</t>
+  </si>
+  <si>
+    <t>KATERINE MARQUEZ BOLANOS</t>
+  </si>
+  <si>
+    <t>1001834375</t>
+  </si>
+  <si>
+    <t>ARLETH PAOLA CASTILLA MENDEZ</t>
+  </si>
+  <si>
+    <t>1047490568</t>
+  </si>
+  <si>
+    <t>MIGUEL RICARDO BOIGA IBARRA</t>
+  </si>
+  <si>
+    <t>1102851816</t>
+  </si>
+  <si>
+    <t>MARITZA ALEJANDRA ARIAS MARQUEZ</t>
+  </si>
+  <si>
+    <t>1047511590</t>
+  </si>
+  <si>
+    <t>EILYN JOHANA PEREA OVIEDO</t>
+  </si>
+  <si>
+    <t>1047484309</t>
+  </si>
+  <si>
+    <t>RICHARD DE JESUS JIMENEZ PAJARO</t>
+  </si>
+  <si>
+    <t>6204530</t>
+  </si>
+  <si>
+    <t>MARIANGEL CAROLINA APONTE TORREALBA</t>
+  </si>
+  <si>
+    <t>1048442405</t>
+  </si>
+  <si>
+    <t>MANUEL DE JESUS MORELOS GAMARRA</t>
+  </si>
+  <si>
+    <t>1094979026</t>
+  </si>
+  <si>
+    <t>ANTHONY JESUS GONZALEZ CILIA</t>
+  </si>
+  <si>
+    <t>1007981418</t>
+  </si>
+  <si>
+    <t>ISABELLA SOFIA CHAVEZ DIAZ</t>
+  </si>
+  <si>
+    <t>1001979664</t>
+  </si>
+  <si>
+    <t>GENESIS PEREZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>1114238083</t>
+  </si>
+  <si>
+    <t>LAURA VALENTINA PIEDRAHITA BALLESTEROS</t>
+  </si>
+  <si>
+    <t>1001937479</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL VALDELAMAR DE ARCO</t>
+  </si>
+  <si>
+    <t>1001972379</t>
+  </si>
+  <si>
+    <t>EVA SANDRI GELES BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>1143413416</t>
+  </si>
+  <si>
+    <t>VERONICA MEZA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1221985251</t>
+  </si>
+  <si>
+    <t>DANIEL SAMIR NEGRETE CARILLO</t>
+  </si>
+  <si>
+    <t>1128052206</t>
+  </si>
+  <si>
+    <t>JORGE LUIS TOUS BALLESTEROS</t>
+  </si>
+  <si>
+    <t>1007256251</t>
+  </si>
+  <si>
+    <t>RONY JAVIER RODIÃ?O RODELO</t>
+  </si>
+  <si>
+    <t>5371674</t>
+  </si>
+  <si>
+    <t>YOGELIN DE JESUS RIVERO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1007958464</t>
+  </si>
+  <si>
+    <t>KEVIS GIOANNA BALMACEDA TEHERAN</t>
+  </si>
+  <si>
+    <t>5468429</t>
+  </si>
+  <si>
+    <t>KEYBER MANUEL PEÃ?ALOZA CASTRO</t>
+  </si>
+  <si>
+    <t>1002476621</t>
+  </si>
+  <si>
+    <t>IVAN DAVID RODRIGUEZ PALACIO</t>
+  </si>
+  <si>
+    <t>43101570</t>
+  </si>
+  <si>
+    <t>ALEJANDRA LEONOR GUIRAL CHANCI</t>
+  </si>
+  <si>
+    <t>45694781</t>
+  </si>
+  <si>
+    <t>LUZ MARIA BOLIVAR ARIETA</t>
+  </si>
+  <si>
+    <t>1143370012</t>
+  </si>
+  <si>
+    <t>ENGIE MARCELA MERCADO MOYA</t>
+  </si>
+  <si>
+    <t>1002200142</t>
+  </si>
+  <si>
+    <t>MANUEL DAVID GUTIERREZ MENCO</t>
+  </si>
+  <si>
+    <t>1127581578</t>
+  </si>
+  <si>
+    <t>RONAL JOSE FAJARDO LOPEZ</t>
+  </si>
+  <si>
+    <t>1002247328</t>
+  </si>
+  <si>
+    <t>ANGIE PAOLA RODRIGUEZ ARRIETA</t>
+  </si>
+  <si>
+    <t>1002200075</t>
+  </si>
+  <si>
+    <t>MARLENE PEREZ MARIMON</t>
+  </si>
+  <si>
+    <t>9294926</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE VILLAFRADE FONCEA</t>
+  </si>
+  <si>
+    <t>5966428</t>
+  </si>
+  <si>
+    <t>DAYANA ELIANNY BARRIOS ESCALONA</t>
+  </si>
+  <si>
+    <t>1048934455</t>
+  </si>
+  <si>
+    <t>NAYELIS GARCIA TEHERAN</t>
+  </si>
+  <si>
+    <t>1005571738</t>
+  </si>
+  <si>
+    <t>DEYCIS YULIANA BATISTA RUENDES</t>
+  </si>
+  <si>
+    <t>1193080912</t>
+  </si>
+  <si>
+    <t>LUZ KARIME RAMOS PALENCIA</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
   </si>
   <si>
     <t>33332539</t>
@@ -101,622 +548,82 @@
     <t>FANNY CERVANTES CARDALES</t>
   </si>
   <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1050953020</t>
+  </si>
+  <si>
+    <t>NATALIA DEL CARMEN MONTALVAN REYES</t>
+  </si>
+  <si>
     <t>2412</t>
   </si>
   <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>3805977</t>
-  </si>
-  <si>
-    <t>JHON JAIRO BATISTA FLOREZ</t>
-  </si>
-  <si>
-    <t>1143343794</t>
-  </si>
-  <si>
-    <t>RUBY LUZ OTERO BERDUGO</t>
-  </si>
-  <si>
-    <t>1047374115</t>
-  </si>
-  <si>
-    <t>EMMA LAURINA SALINAS VARGAS</t>
-  </si>
-  <si>
-    <t>73196969</t>
-  </si>
-  <si>
-    <t>ERINSON ENRIQUE JIMENEZ DE AVILA</t>
-  </si>
-  <si>
-    <t>1130599185</t>
-  </si>
-  <si>
-    <t>ARTURO ANDRES HOOKER GOMEZ</t>
-  </si>
-  <si>
-    <t>1143345137</t>
-  </si>
-  <si>
-    <t>FRANK GUTIERREZ CARDOZY</t>
-  </si>
-  <si>
-    <t>1047475829</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE BARBOZA MORENO</t>
-  </si>
-  <si>
-    <t>78077893</t>
-  </si>
-  <si>
-    <t>PEDRO MIGUEL HERNANDEZ GONZALEZ</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>956445119021982</t>
+  </si>
+  <si>
+    <t>ROBERTO AGUSTIN HERNANDEZ SALAZAR</t>
+  </si>
+  <si>
+    <t>1143407965</t>
+  </si>
+  <si>
+    <t>WENDY PAOLA JIMENEZ DEL CASTILLO</t>
+  </si>
+  <si>
+    <t>1050948722</t>
+  </si>
+  <si>
+    <t>LESLY MIRANDA OSPINO</t>
+  </si>
+  <si>
+    <t>1007792554</t>
+  </si>
+  <si>
+    <t>YERLIS ELENA PEÃ?A ALMANZA</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1001025379</t>
+  </si>
+  <si>
+    <t>CRISTIAN CAMILO TORRES MARCHENA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1127601411</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO MAESTRE BOLIVAR</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1128050362</t>
-  </si>
-  <si>
-    <t>ELIAS JAIR JULIO DE LA ROSA</t>
-  </si>
-  <si>
-    <t>1002195968</t>
-  </si>
-  <si>
-    <t>ANDRES AUGUSTO MARTINEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>1007987411</t>
-  </si>
-  <si>
-    <t>MICHELLE ESTHER HERRERA BURGOS</t>
-  </si>
-  <si>
-    <t>1001804286</t>
-  </si>
-  <si>
-    <t>DANIELA ALEJANDRA PUELLO BERRIO</t>
-  </si>
-  <si>
-    <t>1043645479</t>
-  </si>
-  <si>
-    <t>REYNALDO HERNANDEZ COLON</t>
-  </si>
-  <si>
-    <t>1047442817</t>
-  </si>
-  <si>
-    <t>JHON JADER GOMEZ ALVARADO</t>
-  </si>
-  <si>
-    <t>1047493507</t>
-  </si>
-  <si>
-    <t>CARLOS ENRIQUE JULIO NAVARRO</t>
-  </si>
-  <si>
-    <t>73140730</t>
-  </si>
-  <si>
-    <t>CARLOS ASTOLFO CASTILLO AGAMEZ</t>
-  </si>
-  <si>
-    <t>1002200200</t>
-  </si>
-  <si>
-    <t>YESSICA PAOLA GRICE CERVANTES</t>
-  </si>
-  <si>
-    <t>1007855295</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA JULIAO PATERNINA</t>
-  </si>
-  <si>
-    <t>1143400995</t>
-  </si>
-  <si>
-    <t>CARMEN CECILIA LOPEZ TORRES</t>
-  </si>
-  <si>
-    <t>1043305349</t>
-  </si>
-  <si>
-    <t>WINNIFER MARIA NAVARRO BALLESTA</t>
-  </si>
-  <si>
-    <t>1051420792</t>
-  </si>
-  <si>
-    <t>CORAIMA JULIANA MACEA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1010101539</t>
-  </si>
-  <si>
-    <t>ALEJANDRO MARIO GAMEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>3548276</t>
-  </si>
-  <si>
-    <t>FRANKLIN ENRIQUE BRACHO SALAZAR</t>
-  </si>
-  <si>
-    <t>1047505452</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL CIENFUEGOS GARCIA</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>64522943</t>
-  </si>
-  <si>
-    <t>LUZ MARINA ARIAS BAZA</t>
-  </si>
-  <si>
-    <t>1416334</t>
-  </si>
-  <si>
-    <t>JOSE ENRIQUE MONTOYA REBOLLEDO</t>
-  </si>
-  <si>
-    <t>1052095834</t>
-  </si>
-  <si>
-    <t>ICELA MARIANA VELASQUEZ PELUFFO</t>
-  </si>
-  <si>
-    <t>1047425227</t>
-  </si>
-  <si>
-    <t>ALEJANDRINA CASTRO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>6303005</t>
-  </si>
-  <si>
-    <t>FRANKLIN JOSE GONZALEZ LA ROSA</t>
-  </si>
-  <si>
-    <t>6766115</t>
-  </si>
-  <si>
-    <t>ELBIS JOSE VALDIVIEZO GAMARDO</t>
-  </si>
-  <si>
-    <t>5709620</t>
-  </si>
-  <si>
-    <t>AMELIA LISBETH RODRIGUEZ DE LUYANDO</t>
-  </si>
-  <si>
-    <t>6026436</t>
-  </si>
-  <si>
-    <t>PEDRO JESUS CHAVES RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1047364878</t>
-  </si>
-  <si>
-    <t>JUAN JOSE CERON NAVARRO</t>
-  </si>
-  <si>
-    <t>1042583234</t>
-  </si>
-  <si>
-    <t>MILADIS MIRANDA DIAZ</t>
-  </si>
-  <si>
-    <t>1002189009</t>
-  </si>
-  <si>
-    <t>YURANIS PAOLA REALES SALAS</t>
-  </si>
-  <si>
-    <t>1065123466</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO MONTES MELENDEZ</t>
-  </si>
-  <si>
-    <t>1100403039</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO AGUIRRE DE LA OSSA</t>
-  </si>
-  <si>
-    <t>45692817</t>
-  </si>
-  <si>
-    <t>DIANETH ENELDA RODRIGUEZ CARABALLO</t>
-  </si>
-  <si>
-    <t>1238340484</t>
-  </si>
-  <si>
-    <t>WUILODIS LOPEZ QUIROZ</t>
-  </si>
-  <si>
-    <t>1142949455</t>
-  </si>
-  <si>
-    <t>ESTEBAN CAMILO DEAL CASTELLAR</t>
-  </si>
-  <si>
-    <t>1043305350</t>
-  </si>
-  <si>
-    <t>EVER MIGUEL NAVARRO BALLESTA</t>
-  </si>
-  <si>
-    <t>1007786824</t>
-  </si>
-  <si>
-    <t>KATERINE MARQUEZ BOLANOS</t>
-  </si>
-  <si>
-    <t>1047485619</t>
-  </si>
-  <si>
-    <t>NEISSER SUAREZ ZUNIGA</t>
-  </si>
-  <si>
-    <t>1001834375</t>
-  </si>
-  <si>
-    <t>ARLETH PAOLA CASTILLA MENDEZ</t>
-  </si>
-  <si>
-    <t>1047490568</t>
-  </si>
-  <si>
-    <t>MIGUEL RICARDO BOIGA IBARRA</t>
-  </si>
-  <si>
-    <t>1102851816</t>
-  </si>
-  <si>
-    <t>MARITZA ALEJANDRA ARIAS MARQUEZ</t>
-  </si>
-  <si>
-    <t>45540449</t>
-  </si>
-  <si>
-    <t>ZULLY DEL CARMEN GOMEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>956445119021982</t>
-  </si>
-  <si>
-    <t>ROBERTO AGUSTIN HERNANDEZ SALAZAR</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1047511590</t>
-  </si>
-  <si>
-    <t>EILYN JOHANA PEREA OVIEDO</t>
-  </si>
-  <si>
-    <t>1453204</t>
-  </si>
-  <si>
-    <t>WANDY YARIMAR VELASQUEZ BENCOMO</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1047484309</t>
-  </si>
-  <si>
-    <t>RICHARD DE JESUS JIMENEZ PAJARO</t>
-  </si>
-  <si>
-    <t>6204530</t>
-  </si>
-  <si>
-    <t>MARIANGEL CAROLINA APONTE TORREALBA</t>
-  </si>
-  <si>
-    <t>1048442405</t>
-  </si>
-  <si>
-    <t>MANUEL DE JESUS MORELOS GAMARRA</t>
-  </si>
-  <si>
-    <t>1094979026</t>
-  </si>
-  <si>
-    <t>ANTHONY JESUS GONZALEZ CILIA</t>
-  </si>
-  <si>
-    <t>1007981418</t>
-  </si>
-  <si>
-    <t>ISABELLA SOFIA CHAVEZ DIAZ</t>
-  </si>
-  <si>
-    <t>1001979664</t>
-  </si>
-  <si>
-    <t>GENESIS PEREZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>1114238083</t>
-  </si>
-  <si>
-    <t>LAURA VALENTINA PIEDRAHITA BALLESTEROS</t>
-  </si>
-  <si>
-    <t>1001937479</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL VALDELAMAR DE ARCO</t>
-  </si>
-  <si>
-    <t>1001972379</t>
-  </si>
-  <si>
-    <t>EVA SANDRI GELES BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>1143413416</t>
-  </si>
-  <si>
-    <t>VERONICA MEZA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1221985251</t>
-  </si>
-  <si>
-    <t>DANIEL SAMIR NEGRETE CARILLO</t>
-  </si>
-  <si>
-    <t>1128052206</t>
-  </si>
-  <si>
-    <t>JORGE LUIS TOUS BALLESTEROS</t>
-  </si>
-  <si>
-    <t>1007256251</t>
-  </si>
-  <si>
-    <t>RONY JAVIER RODIÃ?O RODELO</t>
-  </si>
-  <si>
-    <t>1050953020</t>
-  </si>
-  <si>
-    <t>NATALIA DEL CARMEN MONTALVAN REYES</t>
-  </si>
-  <si>
-    <t>5371674</t>
-  </si>
-  <si>
-    <t>YOGELIN DE JESUS RIVERO GONZALEZ</t>
-  </si>
-  <si>
-    <t>1143407965</t>
-  </si>
-  <si>
-    <t>WENDY PAOLA JIMENEZ DEL CASTILLO</t>
-  </si>
-  <si>
-    <t>56787949</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO LUYANDO ARAUJO</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1007958464</t>
-  </si>
-  <si>
-    <t>KEVIS GIOANNA BALMACEDA TEHERAN</t>
-  </si>
-  <si>
-    <t>5468429</t>
-  </si>
-  <si>
-    <t>KEYBER MANUEL PEÃ?ALOZA CASTRO</t>
-  </si>
-  <si>
-    <t>1002476621</t>
-  </si>
-  <si>
-    <t>IVAN DAVID RODRIGUEZ PALACIO</t>
-  </si>
-  <si>
-    <t>43101570</t>
-  </si>
-  <si>
-    <t>ALEJANDRA LEONOR GUIRAL CHANCI</t>
-  </si>
-  <si>
-    <t>45694781</t>
-  </si>
-  <si>
-    <t>LUZ MARIA BOLIVAR ARIETA</t>
-  </si>
-  <si>
-    <t>1143370012</t>
-  </si>
-  <si>
-    <t>ENGIE MARCELA MERCADO MOYA</t>
-  </si>
-  <si>
-    <t>1002200142</t>
-  </si>
-  <si>
-    <t>MANUEL DAVID GUTIERREZ MENCO</t>
-  </si>
-  <si>
-    <t>1050948722</t>
-  </si>
-  <si>
-    <t>LESLY MIRANDA OSPINO</t>
-  </si>
-  <si>
-    <t>1127581578</t>
-  </si>
-  <si>
-    <t>RONAL JOSE FAJARDO LOPEZ</t>
-  </si>
-  <si>
-    <t>1002247328</t>
-  </si>
-  <si>
-    <t>ANGIE PAOLA RODRIGUEZ ARRIETA</t>
-  </si>
-  <si>
-    <t>1002200075</t>
-  </si>
-  <si>
-    <t>MARLENE PEREZ MARIMON</t>
-  </si>
-  <si>
-    <t>9294926</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE VILLAFRADE FONCEA</t>
-  </si>
-  <si>
-    <t>1007792554</t>
-  </si>
-  <si>
-    <t>YERLIS ELENA PEÃ?A ALMANZA</t>
-  </si>
-  <si>
-    <t>5966428</t>
-  </si>
-  <si>
-    <t>DAYANA ELIANNY BARRIOS ESCALONA</t>
-  </si>
-  <si>
-    <t>1048934455</t>
-  </si>
-  <si>
-    <t>NAYELIS GARCIA TEHERAN</t>
-  </si>
-  <si>
-    <t>1005571738</t>
-  </si>
-  <si>
-    <t>DEYCIS YULIANA BATISTA RUENDES</t>
-  </si>
-  <si>
-    <t>1193080912</t>
-  </si>
-  <si>
-    <t>LUZ KARIME RAMOS PALENCIA</t>
-  </si>
-  <si>
-    <t>1007257129</t>
-  </si>
-  <si>
-    <t>VICTOR ANDRES ANGULO PINEDO</t>
-  </si>
-  <si>
-    <t>1137221318</t>
-  </si>
-  <si>
-    <t>JUAN DAVID CANOLES PEDROZA</t>
-  </si>
-  <si>
-    <t>1001025379</t>
-  </si>
-  <si>
-    <t>CRISTIAN CAMILO TORRES MARCHENA</t>
-  </si>
-  <si>
-    <t>1127601411</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO MAESTRE BOLIVAR</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -815,7 +722,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -828,9 +737,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1030,23 +937,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,10 +981,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,7 +1037,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A88A00B-698D-2A8A-5F84-D5B968EA7110}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607BE3F6-BB58-C731-967D-7CCD3F554731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,8 +1388,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02414D83-56AF-439C-8165-15B0A6D46385}">
-  <dimension ref="B2:J202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2A2523-8C25-47EB-AF0D-33B977DC3F3E}">
+  <dimension ref="B2:J177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1506,7 +1413,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1551,7 +1458,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1583,12 +1490,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>8187578</v>
+        <v>6916024</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1599,17 +1506,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C13" s="5">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="F13" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1636,13 +1543,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1659,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>41600</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1670,22 +1577,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1693,22 +1600,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1716,22 +1623,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1739,22 +1646,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>46800</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1762,22 +1669,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1785,22 +1692,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F22" s="18">
-        <v>22533</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1808,22 +1715,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1831,22 +1738,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>27733</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1854,22 +1761,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>43333</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1877,22 +1784,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1900,22 +1807,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>19067</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1923,22 +1830,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1946,22 +1853,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1969,22 +1876,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1995,19 +1902,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>41600</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -2018,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -2041,19 +1948,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -2070,13 +1977,13 @@
         <v>39</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -2087,19 +1994,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -2110,16 +2017,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>43333</v>
       </c>
       <c r="G36" s="18">
         <v>1300000</v>
@@ -2133,16 +2040,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -2156,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>17333</v>
+        <v>19067</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2179,16 +2086,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>27733</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
         <v>1300000</v>
@@ -2202,19 +2109,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>20800</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2225,16 +2132,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G41" s="18">
         <v>1300000</v>
@@ -2248,16 +2155,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>17333</v>
       </c>
       <c r="G42" s="18">
         <v>1300000</v>
@@ -2271,16 +2178,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G43" s="18">
         <v>1300000</v>
@@ -2294,16 +2201,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>20800</v>
       </c>
       <c r="G44" s="18">
         <v>1300000</v>
@@ -2317,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2340,19 +2247,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2369,13 +2276,13 @@
         <v>65</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
       </c>
       <c r="G47" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2386,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
-        <v>52000</v>
+        <v>10400</v>
       </c>
       <c r="G48" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2409,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -2432,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -2455,19 +2362,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
-        <v>10400</v>
+        <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2478,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
       </c>
       <c r="G52" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2498,22 +2405,22 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
-        <v>52000</v>
+        <v>22533</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2524,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2544,22 +2451,22 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2567,22 +2474,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2593,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>52000</v>
+        <v>41600</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2616,19 +2523,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2636,19 +2543,19 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F59" s="18">
-        <v>22533</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="18">
         <v>1300000</v>
@@ -2662,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2685,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2705,19 +2612,19 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>48533</v>
       </c>
       <c r="G62" s="18">
         <v>1300000</v>
@@ -2728,16 +2635,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
@@ -2751,19 +2658,19 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>20800</v>
       </c>
       <c r="G64" s="18">
         <v>1300000</v>
@@ -2774,22 +2681,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
       </c>
       <c r="G65" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2800,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
-        <v>41600</v>
+        <v>52000</v>
       </c>
       <c r="G66" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2823,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2843,22 +2750,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2869,19 +2776,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F69" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2889,22 +2796,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2915,19 +2822,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2938,16 +2845,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
-        <v>52000</v>
+        <v>46800</v>
       </c>
       <c r="G72" s="18">
         <v>1300000</v>
@@ -2961,19 +2868,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2984,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F74" s="18">
-        <v>48533</v>
+        <v>22533</v>
       </c>
       <c r="G74" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -3007,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
@@ -3030,19 +2937,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F76" s="18">
-        <v>52000</v>
+        <v>6933</v>
       </c>
       <c r="G76" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -3053,19 +2960,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F77" s="18">
         <v>52000</v>
       </c>
       <c r="G77" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -3076,16 +2983,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F78" s="18">
-        <v>17333</v>
+        <v>20800</v>
       </c>
       <c r="G78" s="18">
         <v>1300000</v>
@@ -3099,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F79" s="18">
-        <v>20800</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
         <v>1300000</v>
@@ -3122,13 +3029,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -3145,16 +3052,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G81" s="18">
         <v>1300000</v>
@@ -3165,22 +3072,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
       </c>
       <c r="G82" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -3188,22 +3095,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3211,22 +3118,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3234,22 +3141,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3257,22 +3164,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3280,22 +3187,22 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3303,22 +3210,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3326,22 +3233,22 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3349,22 +3256,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F90" s="18">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3375,16 +3282,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>48533</v>
       </c>
       <c r="G91" s="18">
         <v>1300000</v>
@@ -3395,19 +3302,19 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G92" s="18">
         <v>1300000</v>
@@ -3418,19 +3325,19 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="F93" s="18">
-        <v>40000</v>
+        <v>17333</v>
       </c>
       <c r="G93" s="18">
         <v>1300000</v>
@@ -3441,22 +3348,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="F94" s="18">
-        <v>40000</v>
+        <v>24266</v>
       </c>
       <c r="G94" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3464,22 +3371,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>17333</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3487,19 +3394,19 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>17333</v>
       </c>
       <c r="G96" s="18">
         <v>1300000</v>
@@ -3510,22 +3417,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F97" s="18">
-        <v>40000</v>
+        <v>5200</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3533,22 +3440,22 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>1733</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3556,22 +3463,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G99" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3579,19 +3486,19 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G100" s="18">
         <v>1300000</v>
@@ -3602,22 +3509,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G101" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3625,22 +3532,22 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G102" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3648,22 +3555,22 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G103" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3671,22 +3578,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G104" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3694,22 +3601,22 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="F105" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G105" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3717,22 +3624,22 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F106" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3740,19 +3647,19 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>22533</v>
       </c>
       <c r="G107" s="18">
         <v>1300000</v>
@@ -3763,22 +3670,22 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F108" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3789,13 +3696,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F109" s="18">
         <v>52000</v>
@@ -3812,16 +3719,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F110" s="18">
-        <v>46800</v>
+        <v>1733</v>
       </c>
       <c r="G110" s="18">
         <v>1300000</v>
@@ -3832,22 +3739,22 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F111" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G111" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3858,19 +3765,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F112" s="18">
-        <v>22533</v>
+        <v>46800</v>
       </c>
       <c r="G112" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3878,22 +3785,22 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F113" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G113" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3904,16 +3811,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F114" s="18">
-        <v>6933</v>
+        <v>52000</v>
       </c>
       <c r="G114" s="18">
         <v>1300000</v>
@@ -3927,13 +3834,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F115" s="18">
         <v>52000</v>
@@ -3947,22 +3854,22 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="F116" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G116" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3973,13 +3880,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="F117" s="18">
         <v>52000</v>
@@ -3996,13 +3903,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="F118" s="18">
         <v>52000</v>
@@ -4016,22 +3923,22 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="F119" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G119" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -4042,13 +3949,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="F120" s="18">
         <v>52000</v>
@@ -4065,13 +3972,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="F121" s="18">
         <v>52000</v>
@@ -4085,22 +3992,22 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="F122" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G122" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -4111,13 +4018,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="F123" s="18">
         <v>52000</v>
@@ -4134,16 +4041,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="F124" s="18">
-        <v>20800</v>
+        <v>52000</v>
       </c>
       <c r="G124" s="18">
         <v>1300000</v>
@@ -4154,22 +4061,22 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F125" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4180,13 +4087,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F126" s="18">
         <v>52000</v>
@@ -4203,16 +4110,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F127" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G127" s="18">
         <v>1300000</v>
@@ -4223,22 +4130,22 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="F128" s="18">
-        <v>1733</v>
+        <v>46400</v>
       </c>
       <c r="G128" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4246,16 +4153,16 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F129" s="18">
         <v>52000</v>
@@ -4272,19 +4179,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="F130" s="18">
         <v>52000</v>
       </c>
       <c r="G130" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4292,7 +4199,7 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>176</v>
@@ -4301,13 +4208,13 @@
         <v>177</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="F131" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G131" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4318,19 +4225,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="F132" s="18">
         <v>52000</v>
       </c>
       <c r="G132" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4341,19 +4248,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="F133" s="18">
         <v>52000</v>
       </c>
       <c r="G133" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4361,22 +4268,22 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="F134" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G134" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4387,19 +4294,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="F135" s="18">
         <v>52000</v>
       </c>
       <c r="G135" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4410,19 +4317,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="F136" s="18">
         <v>52000</v>
       </c>
       <c r="G136" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4430,7 +4337,7 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>176</v>
@@ -4439,13 +4346,13 @@
         <v>177</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="F137" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G137" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4453,22 +4360,22 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="F138" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G138" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4476,7 +4383,7 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>178</v>
@@ -4485,13 +4392,13 @@
         <v>179</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="F139" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G139" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4499,16 +4406,16 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="F140" s="18">
         <v>46400</v>
@@ -4522,22 +4429,22 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F141" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G141" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4545,22 +4452,22 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F142" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G142" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4568,22 +4475,22 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="F143" s="18">
-        <v>46400</v>
+        <v>3796</v>
       </c>
       <c r="G143" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4591,22 +4498,22 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="F144" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4614,22 +4521,22 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="F145" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G145" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4637,7 +4544,7 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>178</v>
@@ -4646,13 +4553,13 @@
         <v>179</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="F146" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G146" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4660,16 +4567,16 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="F147" s="18">
         <v>46400</v>
@@ -4683,22 +4590,22 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F148" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G148" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4706,22 +4613,22 @@
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F149" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G149" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4729,22 +4636,22 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F150" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G150" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4752,22 +4659,22 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="F151" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G151" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4775,22 +4682,22 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F152" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G152" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4798,7 +4705,7 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>178</v>
@@ -4807,13 +4714,13 @@
         <v>179</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F153" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G153" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4821,16 +4728,16 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F154" s="18">
         <v>46400</v>
@@ -4847,13 +4754,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F155" s="18">
         <v>52000</v>
@@ -4867,16 +4774,16 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F156" s="18">
         <v>52000</v>
@@ -4893,19 +4800,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F157" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G157" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4913,22 +4820,22 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F158" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G158" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4939,13 +4846,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="D159" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E159" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F159" s="18">
         <v>52000</v>
@@ -4962,16 +4869,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F160" s="18">
-        <v>41600</v>
+        <v>52000</v>
       </c>
       <c r="G160" s="18">
         <v>1300000</v>
@@ -4982,22 +4889,22 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F161" s="18">
-        <v>41600</v>
+        <v>46400</v>
       </c>
       <c r="G161" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -5008,13 +4915,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="F162" s="18">
         <v>52000</v>
@@ -5031,13 +4938,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="F163" s="18">
         <v>52000</v>
@@ -5054,19 +4961,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="F164" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G164" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -5074,22 +4981,22 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="F165" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G165" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -5100,13 +5007,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="F166" s="18">
         <v>52000</v>
@@ -5123,13 +5030,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="F167" s="18">
         <v>52000</v>
@@ -5143,22 +5050,22 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="F168" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G168" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -5169,13 +5076,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="F169" s="18">
         <v>52000</v>
@@ -5192,16 +5099,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="F170" s="18">
-        <v>48533</v>
+        <v>52000</v>
       </c>
       <c r="G170" s="18">
         <v>1300000</v>
@@ -5211,631 +5118,56 @@
       <c r="J170" s="20"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D171" s="17" t="s">
+      <c r="B171" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F171" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G171" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="26"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="H176" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E171" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="18">
-        <v>27733</v>
-      </c>
-      <c r="G171" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D172" s="17" t="s">
+      <c r="C177" s="32"/>
+      <c r="H177" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E172" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="18">
-        <v>17333</v>
-      </c>
-      <c r="G172" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="18">
-        <v>24266</v>
-      </c>
-      <c r="G173" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F174" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G174" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F175" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G175" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G176" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F177" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G177" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F178" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G178" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F179" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G179" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F180" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G180" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F181" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G181" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="18">
-        <v>17333</v>
-      </c>
-      <c r="G182" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="18">
-        <v>17333</v>
-      </c>
-      <c r="G183" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F184" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G184" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F185" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G185" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="18">
-        <v>5200</v>
-      </c>
-      <c r="G186" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="18">
-        <v>1733</v>
-      </c>
-      <c r="G187" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F188" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G188" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F189" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G189" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F190" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G190" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F191" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G191" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F192" s="18">
-        <v>3796</v>
-      </c>
-      <c r="G192" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F193" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G193" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F194" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G194" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F195" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G195" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D196" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="E196" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F196" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G196" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H196" s="25"/>
-      <c r="I196" s="25"/>
-      <c r="J196" s="26"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C201" s="32"/>
-      <c r="H201" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C202" s="32"/>
-      <c r="H202" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="H176:J176"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
